--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H2">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I2">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J2">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N2">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O2">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P2">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q2">
-        <v>0.2573987765949412</v>
+        <v>0.02282550579111111</v>
       </c>
       <c r="R2">
-        <v>0.2573987765949412</v>
+        <v>0.20542955212</v>
       </c>
       <c r="S2">
-        <v>0.04354320442722195</v>
+        <v>0.002932970892781832</v>
       </c>
       <c r="T2">
-        <v>0.04354320442722195</v>
+        <v>0.002932970892781832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H3">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I3">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J3">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N3">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O3">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P3">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q3">
-        <v>1.080550236714434</v>
+        <v>0.08629125409666666</v>
       </c>
       <c r="R3">
-        <v>1.080550236714434</v>
+        <v>0.7766212868699999</v>
       </c>
       <c r="S3">
-        <v>0.182792709715095</v>
+        <v>0.01108802314758451</v>
       </c>
       <c r="T3">
-        <v>0.182792709715095</v>
+        <v>0.01108802314758451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H4">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I4">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J4">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N4">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O4">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P4">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q4">
-        <v>0.06242655173245892</v>
+        <v>0.006099811076666666</v>
       </c>
       <c r="R4">
-        <v>0.06242655173245892</v>
+        <v>0.05489829968999999</v>
       </c>
       <c r="S4">
-        <v>0.0105604701767896</v>
+        <v>0.0007837972355599947</v>
       </c>
       <c r="T4">
-        <v>0.0105604701767896</v>
+        <v>0.0007837972355599948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.468393890126236</v>
+        <v>0.03689833333333333</v>
       </c>
       <c r="H5">
-        <v>0.468393890126236</v>
+        <v>0.110695</v>
       </c>
       <c r="I5">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="J5">
-        <v>0.8377635379077351</v>
+        <v>0.05266187597972401</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N5">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O5">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P5">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q5">
-        <v>3.551931289032717</v>
+        <v>0.2946183708361111</v>
       </c>
       <c r="R5">
-        <v>3.551931289032717</v>
+        <v>2.651565337525</v>
       </c>
       <c r="S5">
-        <v>0.6008671535886285</v>
+        <v>0.03785708470379768</v>
       </c>
       <c r="T5">
-        <v>0.6008671535886285</v>
+        <v>0.03785708470379768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H6">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I6">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J6">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N6">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O6">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P6">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q6">
-        <v>0.04984636472235629</v>
+        <v>0.2962003995048889</v>
       </c>
       <c r="R6">
-        <v>0.04984636472235629</v>
+        <v>2.665803595544</v>
       </c>
       <c r="S6">
-        <v>0.008432326205166905</v>
+        <v>0.03806036799922759</v>
       </c>
       <c r="T6">
-        <v>0.008432326205166905</v>
+        <v>0.03806036799922759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H7">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I7">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J7">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N7">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O7">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P7">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q7">
-        <v>0.2092531359807352</v>
+        <v>1.119778206499333</v>
       </c>
       <c r="R7">
-        <v>0.2092531359807352</v>
+        <v>10.078003858494</v>
       </c>
       <c r="S7">
-        <v>0.03539858346485047</v>
+        <v>0.1438862698636443</v>
       </c>
       <c r="T7">
-        <v>0.03539858346485047</v>
+        <v>0.1438862698636443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.09070646329332439</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H8">
-        <v>0.09070646329332439</v>
+        <v>1.436459</v>
       </c>
       <c r="I8">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="J8">
-        <v>0.1622364620922648</v>
+        <v>0.6833788852970629</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N8">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O8">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P8">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q8">
-        <v>0.01208916649558134</v>
+        <v>0.07915559437533333</v>
       </c>
       <c r="R8">
-        <v>0.01208916649558134</v>
+        <v>0.712400349378</v>
       </c>
       <c r="S8">
-        <v>0.002045079836957417</v>
+        <v>0.01017112419888229</v>
       </c>
       <c r="T8">
-        <v>0.002045079836957417</v>
+        <v>0.01017112419888229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4788196666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.436459</v>
+      </c>
+      <c r="I9">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="J9">
+        <v>0.6833788852970629</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.984598333333333</v>
+      </c>
+      <c r="N9">
+        <v>23.953795</v>
+      </c>
+      <c r="O9">
+        <v>0.7188707959886103</v>
+      </c>
+      <c r="P9">
+        <v>0.7188707959886103</v>
+      </c>
+      <c r="Q9">
+        <v>3.823182712433889</v>
+      </c>
+      <c r="R9">
+        <v>34.40864441190499</v>
+      </c>
+      <c r="S9">
+        <v>0.4912611232353088</v>
+      </c>
+      <c r="T9">
+        <v>0.4912611232353088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.124168</v>
+      </c>
+      <c r="I10">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J10">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6186053333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.855816</v>
+      </c>
+      <c r="O10">
+        <v>0.0556943868446899</v>
+      </c>
+      <c r="P10">
+        <v>0.0556943868446899</v>
+      </c>
+      <c r="Q10">
+        <v>0.02560366234311111</v>
+      </c>
+      <c r="R10">
+        <v>0.230432961088</v>
+      </c>
+      <c r="S10">
+        <v>0.003289951034960337</v>
+      </c>
+      <c r="T10">
+        <v>0.003289951034960338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.124168</v>
+      </c>
+      <c r="I11">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J11">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.338622</v>
+      </c>
+      <c r="N11">
+        <v>7.015866</v>
+      </c>
+      <c r="O11">
+        <v>0.2105512373287584</v>
+      </c>
+      <c r="P11">
+        <v>0.2105512373287584</v>
+      </c>
+      <c r="Q11">
+        <v>0.09679400549866667</v>
+      </c>
+      <c r="R11">
+        <v>0.871146049488</v>
+      </c>
+      <c r="S11">
+        <v>0.01243757765201024</v>
+      </c>
+      <c r="T11">
+        <v>0.01243757765201024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.124168</v>
+      </c>
+      <c r="I12">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J12">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.165314</v>
+      </c>
+      <c r="N12">
+        <v>0.495942</v>
+      </c>
+      <c r="O12">
+        <v>0.01488357983794147</v>
+      </c>
+      <c r="P12">
+        <v>0.01488357983794148</v>
+      </c>
+      <c r="Q12">
+        <v>0.006842236250666666</v>
+      </c>
+      <c r="R12">
+        <v>0.061580126256</v>
+      </c>
+      <c r="S12">
+        <v>0.0008791954030896918</v>
+      </c>
+      <c r="T12">
+        <v>0.000879195403089692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04138933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.124168</v>
+      </c>
+      <c r="I13">
+        <v>0.05907150112155356</v>
+      </c>
+      <c r="J13">
+        <v>0.05907150112155357</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.984598333333333</v>
+      </c>
+      <c r="N13">
+        <v>23.953795</v>
+      </c>
+      <c r="O13">
+        <v>0.7188707959886103</v>
+      </c>
+      <c r="P13">
+        <v>0.7188707959886103</v>
+      </c>
+      <c r="Q13">
+        <v>0.3304772019511111</v>
+      </c>
+      <c r="R13">
+        <v>2.97429481756</v>
+      </c>
+      <c r="S13">
+        <v>0.0424647770314933</v>
+      </c>
+      <c r="T13">
+        <v>0.0424647770314933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.430673</v>
+      </c>
+      <c r="I14">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J14">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6186053333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.855816</v>
+      </c>
+      <c r="O14">
+        <v>0.0556943868446899</v>
+      </c>
+      <c r="P14">
+        <v>0.0556943868446899</v>
+      </c>
+      <c r="Q14">
+        <v>0.0888055382408889</v>
+      </c>
+      <c r="R14">
+        <v>0.799249844168</v>
+      </c>
+      <c r="S14">
+        <v>0.01141109691772013</v>
+      </c>
+      <c r="T14">
+        <v>0.01141109691772013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.09070646329332439</v>
-      </c>
-      <c r="H9">
-        <v>0.09070646329332439</v>
-      </c>
-      <c r="I9">
-        <v>0.1622364620922648</v>
-      </c>
-      <c r="J9">
-        <v>0.1622364620922648</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.58321439264599</v>
-      </c>
-      <c r="N9">
-        <v>7.58321439264599</v>
-      </c>
-      <c r="O9">
-        <v>0.7172276261739187</v>
-      </c>
-      <c r="P9">
-        <v>0.7172276261739187</v>
-      </c>
-      <c r="Q9">
-        <v>0.6878465579519527</v>
-      </c>
-      <c r="R9">
-        <v>0.6878465579519527</v>
-      </c>
-      <c r="S9">
-        <v>0.11636047258529</v>
-      </c>
-      <c r="T9">
-        <v>0.11636047258529</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.430673</v>
+      </c>
+      <c r="I15">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J15">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.338622</v>
+      </c>
+      <c r="N15">
+        <v>7.015866</v>
+      </c>
+      <c r="O15">
+        <v>0.2105512373287584</v>
+      </c>
+      <c r="P15">
+        <v>0.2105512373287584</v>
+      </c>
+      <c r="Q15">
+        <v>0.3357271175353334</v>
+      </c>
+      <c r="R15">
+        <v>3.021544057818</v>
+      </c>
+      <c r="S15">
+        <v>0.04313936666551935</v>
+      </c>
+      <c r="T15">
+        <v>0.04313936666551936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.430673</v>
+      </c>
+      <c r="I16">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J16">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.165314</v>
+      </c>
+      <c r="N16">
+        <v>0.495942</v>
+      </c>
+      <c r="O16">
+        <v>0.01488357983794147</v>
+      </c>
+      <c r="P16">
+        <v>0.01488357983794148</v>
+      </c>
+      <c r="Q16">
+        <v>0.02373209210733333</v>
+      </c>
+      <c r="R16">
+        <v>0.213588828966</v>
+      </c>
+      <c r="S16">
+        <v>0.0030494630004095</v>
+      </c>
+      <c r="T16">
+        <v>0.003049463000409501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1435576666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.430673</v>
+      </c>
+      <c r="I17">
+        <v>0.2048877376016593</v>
+      </c>
+      <c r="J17">
+        <v>0.2048877376016594</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.984598333333333</v>
+      </c>
+      <c r="N17">
+        <v>23.953795</v>
+      </c>
+      <c r="O17">
+        <v>0.7188707959886103</v>
+      </c>
+      <c r="P17">
+        <v>0.7188707959886103</v>
+      </c>
+      <c r="Q17">
+        <v>1.146250306003889</v>
+      </c>
+      <c r="R17">
+        <v>10.316252754035</v>
+      </c>
+      <c r="S17">
+        <v>0.1472878110180104</v>
+      </c>
+      <c r="T17">
+        <v>0.1472878110180104</v>
       </c>
     </row>
   </sheetData>
